--- a/arquivos/atribuicoes.xlsx
+++ b/arquivos/atribuicoes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="15600" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -654,7 +654,7 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
